--- a/JBOA/JBOA项目进度表.xlsx
+++ b/JBOA/JBOA项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14325" windowHeight="8985"/>
+    <workbookView windowWidth="14325" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="5-5" sheetId="1" r:id="rId1"/>
@@ -156,12 +156,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +193,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +209,58 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,55 +281,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,41 +305,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,13 +351,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,139 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,45 +580,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,7 +618,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +637,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -669,152 +686,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +859,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,6 +870,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,8 +1232,8 @@
   <sheetPr/>
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K5"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1335,1048 +1364,1053 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>6</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>8</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>9</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <v>10</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <v>11</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="6">
         <v>12</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <v>13</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="6">
         <v>14</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="6">
         <v>15</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="6">
         <v>16</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="6">
         <v>17</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="6">
         <v>18</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="6">
         <v>19</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="6">
         <v>20</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="6">
         <v>21</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="6">
         <v>22</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="6">
         <v>23</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="6">
         <v>24</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="6">
         <v>25</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="6">
         <v>26</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="6">
         <v>27</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="6">
         <v>28</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="6">
         <v>29</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AD4" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:30">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:30">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:30">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:30">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:30">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>5</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:30">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>3</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:30">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>4</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:30">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:30">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:30">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:30">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:30">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:30">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:30">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>4</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:30">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:30">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:30">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:30">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>3</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:30">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>4</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:30">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>2</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:30">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>3</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:30">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>4</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:30">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:30">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1">
       <c r="A29" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:4">
+    <row r="30" ht="18" customHeight="1" spans="1:6">
       <c r="A30" s="2">
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:4">
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:6">
       <c r="A31" s="2">
         <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:4">
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:6">
       <c r="A32" s="2">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:4">
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:6">
       <c r="A33" s="2">
         <v>23</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" ht="18" customHeight="1" spans="1:4">
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:6">
       <c r="A34" s="2">
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="F34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
